--- a/challenge_4/Solution_Sketch/Walt Disney - Tom.xlsx
+++ b/challenge_4/Solution_Sketch/Walt Disney - Tom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BHH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\Design-Thinking-Workshop\SmartSystemsBS14\challenge_4\Solution_Sketch\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359474F5-7D0A-4732-8E10-8A064D433036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Walt Disney Method</t>
   </si>
@@ -56,12 +57,36 @@
 • What is missing? 
 • What are weak points and how can we cope with them?</t>
   </si>
+  <si>
+    <t>Flying People across</t>
+  </si>
+  <si>
+    <t>Party Boat</t>
+  </si>
+  <si>
+    <t>Autonomous Ferry</t>
+  </si>
+  <si>
+    <t>Ferry with changing roof height</t>
+  </si>
+  <si>
+    <t>Ferry which is also a submarine -&gt; get under bridge no matter the water level</t>
+  </si>
+  <si>
+    <t>No time Problems because of perfect humans</t>
+  </si>
+  <si>
+    <t>Everyone in range of (x) km gets mobile notification when the ferry is there</t>
+  </si>
+  <si>
+    <t>Everyone in range of (x) km gets mobile notification when the ferry is not operating</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -73,6 +98,7 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,12 +119,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,19 +137,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -171,8 +188,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -181,6 +196,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,21 +414,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.6328125" customWidth="1"/>
-    <col min="2" max="2" width="49.90625" customWidth="1"/>
-    <col min="3" max="3" width="65.7265625" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -421,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13">
+    <row r="4" spans="1:3" ht="13.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -432,61 +450,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="65" customHeight="1">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:3" ht="64.95" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="6"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:3" ht="13.2">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+    <row r="11" spans="1:3" ht="25.2" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="27.6" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="27.6" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="8"/>
@@ -538,97 +572,101 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" ht="12.5">
+    <row r="25" spans="1:3" ht="13.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" ht="12.5">
+    <row r="26" spans="1:3" ht="13.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" ht="12.5">
+    <row r="27" spans="1:3" ht="13.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" ht="12.5">
+    <row r="28" spans="1:3" ht="13.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" ht="12.5">
+    <row r="29" spans="1:3" ht="13.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" ht="12.5">
+    <row r="30" spans="1:3" ht="13.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" ht="12.5">
+    <row r="31" spans="1:3" ht="13.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" ht="12.5">
+    <row r="32" spans="1:3" ht="13.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" ht="12.5">
+    <row r="33" spans="1:3" ht="13.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" ht="12.5">
+    <row r="34" spans="1:3" ht="13.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" ht="12.5">
+    <row r="35" spans="1:3" ht="13.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" ht="12.5">
+    <row r="36" spans="1:3" ht="13.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" ht="12.5">
+    <row r="37" spans="1:3" ht="13.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" ht="12.5">
+    <row r="38" spans="1:3" ht="13.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:3" ht="12.5">
+    <row r="39" spans="1:3" ht="13.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" ht="12.5">
+    <row r="40" spans="1:3" ht="13.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" ht="12.5">
+    <row r="41" spans="1:3" ht="13.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" ht="12.5">
+    <row r="42" spans="1:3" ht="13.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000- öffentlich | public -&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/challenge_4/Solution_Sketch/Walt Disney - Tom.xlsx
+++ b/challenge_4/Solution_Sketch/Walt Disney - Tom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmarkmann\Documents\I-Tech\Design-Thinking-Workshop\SmartSystemsBS14\challenge_4\Solution_Sketch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359474F5-7D0A-4732-8E10-8A064D433036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DB1406-239B-450B-8FFC-309211210DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Walt Disney Method</t>
   </si>
@@ -80,6 +80,48 @@
   </si>
   <si>
     <t>Everyone in range of (x) km gets mobile notification when the ferry is not operating</t>
+  </si>
+  <si>
+    <t>Personal flying transportation is limited by technology and safety considerations.</t>
+  </si>
+  <si>
+    <t>What technologies are being explored for personal flying transportation?</t>
+  </si>
+  <si>
+    <t>Party boats exist, but safety regulations and responsible alcohol consumption must be considered.</t>
+  </si>
+  <si>
+    <t>What are the legal requirements and safety considerations for party boats?</t>
+  </si>
+  <si>
+    <t>Humans have limitations and cannot be perfect with no time-related problems.</t>
+  </si>
+  <si>
+    <t>How can individuals improve time management and productivity?</t>
+  </si>
+  <si>
+    <t>Autonomous ferries are being developed, but widespread adoption requires advancements and public acceptance.</t>
+  </si>
+  <si>
+    <t>What are the advancements and challenges in implementing autonomous ferries?</t>
+  </si>
+  <si>
+    <t>Designing a ferry with a changing roof height presents engineering challenges and safety concerns.</t>
+  </si>
+  <si>
+    <t>What are the engineering considerations and safety risks for a ferry with a changing roof height?</t>
+  </si>
+  <si>
+    <t>Creating a ferry that can function as a submarine requires advanced engineering and safety measures.</t>
+  </si>
+  <si>
+    <t>What are the limitations and challenges of creating a ferry-submarine?</t>
+  </si>
+  <si>
+    <t>Mobile notifications for ferry presence are possible but require addressing privacy concerns and data protection.</t>
+  </si>
+  <si>
+    <t>How would the mobile notification system determine the range and address privacy concerns?</t>
   </si>
 </sst>
 </file>
@@ -149,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,11 +214,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -184,9 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,10 +259,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -421,7 +492,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -451,218 +522,250 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="64.95" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" ht="26.4">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.4">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.4">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.4">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="13.2">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.4">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="25.2" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.4">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26.4">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26.4">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="13.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="13.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="13.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="13.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="13.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="13.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="13.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" ht="13.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" ht="13.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" ht="13.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" ht="13.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" ht="13.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" ht="13.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" ht="13.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" ht="13.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" ht="13.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3" ht="13.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" ht="13.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
